--- a/Import_journal/import_journal_ค้างจ่าย.xlsx
+++ b/Import_journal/import_journal_ค้างจ่าย.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>document_number</t>
   </si>
@@ -62,40 +62,31 @@
     <t>credit</t>
   </si>
   <si>
-    <t>BCADV6804002</t>
-  </si>
-  <si>
-    <t>CADV6804004</t>
-  </si>
-  <si>
-    <t>CR25010012</t>
-  </si>
-  <si>
-    <t>CR25010013</t>
-  </si>
-  <si>
-    <t>CR25010014</t>
-  </si>
-  <si>
-    <t>CR25010015</t>
-  </si>
-  <si>
-    <t>CR25010016</t>
-  </si>
-  <si>
-    <t>CR25010017</t>
-  </si>
-  <si>
-    <t>OEP6801070</t>
-  </si>
-  <si>
-    <t>CADV6804026</t>
-  </si>
-  <si>
-    <t>OEP6802081</t>
-  </si>
-  <si>
-    <t>OB-ค้างจ่าย</t>
+    <t>วันที่ลงบัญชี</t>
+  </si>
+  <si>
+    <t>เลขที่เอกสาร</t>
+  </si>
+  <si>
+    <t>เอกสารอ้างอิง</t>
+  </si>
+  <si>
+    <t>รหัส vender MGTX</t>
+  </si>
+  <si>
+    <t>ขื่อ Vender</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>จำนวนเงินลงบัญชี</t>
+  </si>
+  <si>
+    <t>custom_referrence</t>
+  </si>
+  <si>
+    <t>บัญชีพัก</t>
   </si>
 </sst>
 </file>
@@ -103,9 +94,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +105,30 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -146,15 +151,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -435,203 +473,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="22.2" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
-        <v>45691</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45698</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45712</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45714</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
-        <v>45688</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>214102</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
-        <v>45688</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
-        <v>45688</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3">
-        <v>45688</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
-        <v>45688</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45688</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45688</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45698</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45716</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
+      <c r="M2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Import_journal/import_journal_ค้างจ่าย.xlsx
+++ b/Import_journal/import_journal_ค้างจ่าย.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>document_number</t>
   </si>
@@ -38,12 +38,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>account1</t>
-  </si>
-  <si>
-    <t>account2</t>
-  </si>
-  <si>
     <t>partner_code</t>
   </si>
   <si>
@@ -62,31 +56,139 @@
     <t>credit</t>
   </si>
   <si>
-    <t>วันที่ลงบัญชี</t>
-  </si>
-  <si>
-    <t>เลขที่เอกสาร</t>
-  </si>
-  <si>
-    <t>เอกสารอ้างอิง</t>
-  </si>
-  <si>
-    <t>รหัส vender MGTX</t>
-  </si>
-  <si>
-    <t>ขื่อ Vender</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>จำนวนเงินลงบัญชี</t>
-  </si>
-  <si>
     <t>custom_referrence</t>
   </si>
   <si>
-    <t>บัญชีพัก</t>
+    <t>account_debit</t>
+  </si>
+  <si>
+    <t>account_credit</t>
+  </si>
+  <si>
+    <t>สมุดรายวันค้างจ่าย</t>
+  </si>
+  <si>
+    <t>BCADV6810011</t>
+  </si>
+  <si>
+    <t>BCADV6811008</t>
+  </si>
+  <si>
+    <t>BOEP6708018</t>
+  </si>
+  <si>
+    <t>BOEP6708022</t>
+  </si>
+  <si>
+    <t>BOEP6709022</t>
+  </si>
+  <si>
+    <t>BOEP6710014</t>
+  </si>
+  <si>
+    <t>BOEP6711019</t>
+  </si>
+  <si>
+    <t>BOEP6712021</t>
+  </si>
+  <si>
+    <t>BOEP6712024</t>
+  </si>
+  <si>
+    <t>BOEP6801017</t>
+  </si>
+  <si>
+    <t>PTPT00047370</t>
+  </si>
+  <si>
+    <t>PTPT00047540</t>
+  </si>
+  <si>
+    <t>PRPR00042442</t>
+  </si>
+  <si>
+    <t>PRPR00043081</t>
+  </si>
+  <si>
+    <t>PRPR00043079</t>
+  </si>
+  <si>
+    <t>PRPR00043588</t>
+  </si>
+  <si>
+    <t>PRPR00044252</t>
+  </si>
+  <si>
+    <t>PRPR00045181</t>
+  </si>
+  <si>
+    <t>PRPR00045306</t>
+  </si>
+  <si>
+    <t>PRPR00046281</t>
+  </si>
+  <si>
+    <t>V00001</t>
+  </si>
+  <si>
+    <t>V00002</t>
+  </si>
+  <si>
+    <t>V00003</t>
+  </si>
+  <si>
+    <t>V00004</t>
+  </si>
+  <si>
+    <t>V00005</t>
+  </si>
+  <si>
+    <t>V00006</t>
+  </si>
+  <si>
+    <t>V00007</t>
+  </si>
+  <si>
+    <t>V00008</t>
+  </si>
+  <si>
+    <t>V00009</t>
+  </si>
+  <si>
+    <t>V00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ค่าแรง+จานครัช ซ่อมบำรุงรถ ถน 9782 กทม</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ค่าแรงพนักงานต่างด้าว BU2 ดิวจ่าย รอบ 11/10-25/10/68 จ่าย 5/11/68 บันได 14,508 เฟอร์ 9,532.5 คลัง 9672</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่),1.ค่าแรงบันได  = 47,856.21 2.ค่าแรงเฟอร์= 22,256.51 3.ค่าไฟ สนง.10% =16,545.46 ,บันได 43% =71,145.46 เฟอร์ 47%=77,763.64 4.ค่าถ่ายเอกสาร ติดตั้ง 2,422.32, บัญชี 3,954.93,HR 2,716.84 ,ค่าโทรศัพท์ สนง.10% =121.30,บันได 43%=521.59,เฟอร์ 47% =570.11,ค่าเบี้ยประกันภัยรถทะเบียน ฒบ-6388 ระยะเวลาเอาประกัน 16/08/67-16/08/68 =11,195</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่),1.ค่าน้ำ เดือน ส.ค.67  สนง.10% =75 ,บันได 43% =322.50 เฟอร์ 47%=352.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่),1.ค่าไฟ สนง.10% =15,845.08 ,บันได 43% =68,133.83 เฟอร์ 47%=74,471.86 2.ค่าน้ำ สนง.10%=75 ,บันได 43%=322.50 ,เฟอร์ 47%=352.50 3.ค่าโทรศัพท์ สนง.10% =121,บันได 43%=520.30,เฟอร์ 47% =568.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่),1.ค่าไฟ สนง.10% =15,868.54 ,บันได 43% =68,234.71 เฟอร์ 47%=74,582.12 2.ค่าน้ำ สนง.10%=75 ,บันได 43%=322.50 ,เฟอร์ 47%=352.50 3.ค่าโทรศัพท์ สนง.10% =120.80,บันได 43%=519.44,เฟอร์ 47% =567.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่),1.ค่าไฟ สนง.10% =14,299.98 ,บันได 43% =61,489.90 เฟอร์ 47%=67,209.89 2.ค่าน้ำ สนง.10%=75 ,บันได 43%=322.50 ,เฟอร์ 47%=352.50 3.ค่าโทรศัพท์ สนง.10% =120.80,บันได 43%=518.58,เฟอร์ 47% =566.82 4.ค่าหอพัก=บันได 7,336.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่),1.ค่าไฟ สนง.10% =10,764.78 ,บันได 43% =46,288.54 เฟอร์ 47%=50,594.45 2.ค่าน้ำ สนง.10%=75 ,บันได 43%=322.50 ,เฟอร์ 47%=352.50 3.ค่าบริการ Email-Zimbra =1,950 (AIV6801001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่),ค่าโทรศัพท์ สนง.10% =121,บันได 43%=520.30,เฟอร์ 47% =568.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -คุณ พรเพ็ชร วสันตกิจกำจร,ค่าน้ำมัน เดือน 1/68 (24/1/68)</t>
+  </si>
+  <si>
+    <t>OB-ค้างจ่าย</t>
   </si>
 </sst>
 </file>
@@ -175,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -192,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,25 +578,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="4" customWidth="1"/>
     <col min="9" max="9" width="17.77734375" style="4" customWidth="1"/>
     <col min="10" max="10" width="14.77734375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="43.44140625" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.21875" style="4" customWidth="1"/>
     <col min="13" max="13" width="13.77734375" style="4" customWidth="1"/>
   </cols>
@@ -510,65 +615,382 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45958</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1">
+        <v>900001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>214102</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1335</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45955</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4">
+        <v>900001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>214102</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="4">
+        <v>33713</v>
+      </c>
+      <c r="M3" s="4">
+        <v>33713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45535</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="4">
+        <v>900001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>214102</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="4">
+        <v>274427.63</v>
+      </c>
+      <c r="M4" s="4">
+        <v>274427.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45535</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4">
+        <v>900001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>214102</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="4">
+        <v>802.5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>802.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45565</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="4">
+        <v>900001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>214102</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="4">
+        <v>171639.52</v>
+      </c>
+      <c r="M6" s="4">
+        <v>171639.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="22.2" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B7" s="3">
+        <v>45596</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4">
+        <v>900001</v>
+      </c>
+      <c r="G7" s="4">
         <v>214102</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="4">
+        <v>171888.41</v>
+      </c>
+      <c r="M7" s="4">
+        <v>171888.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1"/>
+      <c r="B8" s="3">
+        <v>45626</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="4">
+        <v>900001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>214102</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="4">
+        <v>162952.66</v>
+      </c>
+      <c r="M8" s="4">
+        <v>162952.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45657</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4">
+        <v>900001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>214102</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="4">
+        <v>118072.11</v>
+      </c>
+      <c r="M9" s="4">
+        <v>118072.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45657</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4">
+        <v>900001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>214102</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1294.7</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1294.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45681</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="4">
+        <v>900001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>214102</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1360</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1360</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Import_journal/import_journal_ค้างจ่าย.xlsx
+++ b/Import_journal/import_journal_ค้างจ่าย.xlsx
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Import_journal/import_journal_ค้างจ่าย.xlsx
+++ b/Import_journal/import_journal_ค้างจ่าย.xlsx
@@ -4545,7 +4545,9 @@
       <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" t="s" s="7">
+        <v>16</v>
+      </c>
       <c r="J3" t="s" s="7">
         <v>17</v>
       </c>
@@ -4582,7 +4584,9 @@
       <c r="H4" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" t="s" s="13">
+        <v>20</v>
+      </c>
       <c r="J4" t="s" s="13">
         <v>17</v>
       </c>
@@ -4619,7 +4623,9 @@
       <c r="H5" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" t="s" s="13">
+        <v>22</v>
+      </c>
       <c r="J5" t="s" s="13">
         <v>17</v>
       </c>
@@ -4656,7 +4662,9 @@
       <c r="H6" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" t="s" s="13">
+        <v>24</v>
+      </c>
       <c r="J6" t="s" s="13">
         <v>17</v>
       </c>
@@ -4693,7 +4701,9 @@
       <c r="H7" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="J7" t="s" s="13">
         <v>17</v>
       </c>
@@ -4730,7 +4740,9 @@
       <c r="H8" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" t="s" s="13">
+        <v>28</v>
+      </c>
       <c r="J8" t="s" s="13">
         <v>17</v>
       </c>
@@ -4767,7 +4779,9 @@
       <c r="H9" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" t="s" s="13">
+        <v>20</v>
+      </c>
       <c r="J9" t="s" s="13">
         <v>30</v>
       </c>
@@ -4806,7 +4820,9 @@
       <c r="H10" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" t="s" s="13">
+        <v>20</v>
+      </c>
       <c r="J10" t="s" s="13">
         <v>30</v>
       </c>
@@ -4845,7 +4861,9 @@
       <c r="H11" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" t="s" s="13">
+        <v>22</v>
+      </c>
       <c r="J11" t="s" s="13">
         <v>37</v>
       </c>
@@ -4884,7 +4902,9 @@
       <c r="H12" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" t="s" s="13">
+        <v>24</v>
+      </c>
       <c r="J12" t="s" s="13">
         <v>41</v>
       </c>
@@ -4923,7 +4943,9 @@
       <c r="H13" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" t="s" s="13">
+        <v>26</v>
+      </c>
       <c r="J13" t="s" s="13">
         <v>44</v>
       </c>
@@ -4962,7 +4984,9 @@
       <c r="H14" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" t="s" s="13">
+        <v>28</v>
+      </c>
       <c r="J14" t="s" s="13">
         <v>47</v>
       </c>
@@ -5001,7 +5025,9 @@
       <c r="H15" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" t="s" s="13">
+        <v>50</v>
+      </c>
       <c r="J15" t="s" s="13">
         <v>51</v>
       </c>
@@ -5040,7 +5066,9 @@
       <c r="H16" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" t="s" s="13">
+        <v>54</v>
+      </c>
       <c r="J16" t="s" s="13">
         <v>55</v>
       </c>
@@ -5079,7 +5107,9 @@
       <c r="H17" t="s" s="13">
         <v>59</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" t="s" s="13">
+        <v>59</v>
+      </c>
       <c r="J17" t="s" s="13">
         <v>60</v>
       </c>
@@ -5118,7 +5148,9 @@
       <c r="H18" t="s" s="13">
         <v>63</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" t="s" s="13">
+        <v>63</v>
+      </c>
       <c r="J18" t="s" s="13">
         <v>64</v>
       </c>
@@ -5157,7 +5189,9 @@
       <c r="H19" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" t="s" s="13">
+        <v>67</v>
+      </c>
       <c r="J19" t="s" s="13">
         <v>68</v>
       </c>
@@ -5196,7 +5230,9 @@
       <c r="H20" t="s" s="13">
         <v>71</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" t="s" s="13">
+        <v>71</v>
+      </c>
       <c r="J20" t="s" s="13">
         <v>72</v>
       </c>
@@ -5235,7 +5271,9 @@
       <c r="H21" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" t="s" s="13">
+        <v>76</v>
+      </c>
       <c r="J21" t="s" s="13">
         <v>77</v>
       </c>
@@ -5274,7 +5312,9 @@
       <c r="H22" t="s" s="13">
         <v>80</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" t="s" s="13">
+        <v>80</v>
+      </c>
       <c r="J22" t="s" s="13">
         <v>81</v>
       </c>
@@ -5313,7 +5353,9 @@
       <c r="H23" t="s" s="13">
         <v>84</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" t="s" s="13">
+        <v>84</v>
+      </c>
       <c r="J23" t="s" s="13">
         <v>85</v>
       </c>
@@ -5352,7 +5394,9 @@
       <c r="H24" t="s" s="13">
         <v>88</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" t="s" s="13">
+        <v>88</v>
+      </c>
       <c r="J24" t="s" s="13">
         <v>89</v>
       </c>
@@ -5391,7 +5435,9 @@
       <c r="H25" t="s" s="13">
         <v>92</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" t="s" s="13">
+        <v>92</v>
+      </c>
       <c r="J25" t="s" s="13">
         <v>93</v>
       </c>
@@ -5430,7 +5476,9 @@
       <c r="H26" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" t="s" s="13">
+        <v>97</v>
+      </c>
       <c r="J26" t="s" s="13">
         <v>98</v>
       </c>
@@ -5469,7 +5517,9 @@
       <c r="H27" t="s" s="13">
         <v>101</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" t="s" s="13">
+        <v>101</v>
+      </c>
       <c r="J27" t="s" s="13">
         <v>102</v>
       </c>
@@ -5506,7 +5556,9 @@
       <c r="H28" t="s" s="13">
         <v>105</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" t="s" s="13">
+        <v>105</v>
+      </c>
       <c r="J28" t="s" s="13">
         <v>106</v>
       </c>
@@ -5950,7 +6002,9 @@
       <c r="H40" t="s" s="13">
         <v>139</v>
       </c>
-      <c r="I40" s="13"/>
+      <c r="I40" t="s" s="13">
+        <v>139</v>
+      </c>
       <c r="J40" t="s" s="13">
         <v>140</v>
       </c>
@@ -5987,7 +6041,9 @@
       <c r="H41" t="s" s="13">
         <v>139</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" t="s" s="13">
+        <v>139</v>
+      </c>
       <c r="J41" t="s" s="13">
         <v>140</v>
       </c>
@@ -6024,7 +6080,9 @@
       <c r="H42" t="s" s="13">
         <v>139</v>
       </c>
-      <c r="I42" s="13"/>
+      <c r="I42" t="s" s="13">
+        <v>139</v>
+      </c>
       <c r="J42" t="s" s="13">
         <v>140</v>
       </c>
@@ -6098,7 +6156,9 @@
       <c r="H44" t="s" s="13">
         <v>139</v>
       </c>
-      <c r="I44" s="13"/>
+      <c r="I44" t="s" s="13">
+        <v>139</v>
+      </c>
       <c r="J44" t="s" s="13">
         <v>140</v>
       </c>
@@ -6246,7 +6306,9 @@
       <c r="H48" t="s" s="13">
         <v>139</v>
       </c>
-      <c r="I48" s="13"/>
+      <c r="I48" t="s" s="13">
+        <v>139</v>
+      </c>
       <c r="J48" t="s" s="13">
         <v>140</v>
       </c>
@@ -6320,7 +6382,9 @@
       <c r="H50" t="s" s="13">
         <v>139</v>
       </c>
-      <c r="I50" s="13"/>
+      <c r="I50" t="s" s="13">
+        <v>139</v>
+      </c>
       <c r="J50" t="s" s="13">
         <v>140</v>
       </c>
@@ -13979,7 +14043,9 @@
       <c r="H257" t="s" s="13">
         <v>139</v>
       </c>
-      <c r="I257" s="13"/>
+      <c r="I257" t="s" s="13">
+        <v>139</v>
+      </c>
       <c r="J257" t="s" s="13">
         <v>140</v>
       </c>
